--- a/data/trans_dic/P56$pareja-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Provincia-trans_dic.xlsx
@@ -714,14 +714,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2477139334691563</v>
+        <v>0.2075275727720834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.129082078600382</v>
+        <v>0.128247689557006</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.04378431186784161</v>
+        <v>0.04369278550486862</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -731,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03828922173741491</v>
+        <v>0.03822110782842026</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1463668117004446</v>
+        <v>0.1309843810628119</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04862437349986808</v>
+        <v>0.05098506161990574</v>
       </c>
     </row>
     <row r="6">
@@ -751,33 +751,33 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5989113066530795</v>
+        <v>0.5699366378131533</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8337936067749842</v>
+        <v>0.765262677768916</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8630662082195536</v>
+        <v>0.8648336328814205</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.3471064722845239</v>
+        <v>0.384598670786591</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4899268765691772</v>
+        <v>0.5245213905189203</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.7947687214084287</v>
+        <v>0.8353848417117875</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3316685173656282</v>
+        <v>0.3218695057542892</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5098724325856832</v>
+        <v>0.4913142041294173</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4029992578590669</v>
+        <v>0.41584826545907</v>
       </c>
     </row>
     <row r="7">
@@ -825,7 +825,7 @@
         <v>0.1366888492581587</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2092638156907248</v>
+        <v>0.2092638156907249</v>
       </c>
     </row>
     <row r="8">
@@ -839,37 +839,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3458595812865631</v>
+        <v>0.397263698374877</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2111087543738125</v>
+        <v>0.2091921728523369</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03022785161654969</v>
+        <v>0.03045343086569041</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07713367347883493</v>
+        <v>0.06882062861619388</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05447581363981727</v>
+        <v>0.04840623178277575</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1389664508331662</v>
+        <v>0.1378923628739876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04073498223806754</v>
+        <v>0.04224363406608838</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1271999906348044</v>
+        <v>0.1329600839532987</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7224607226501767</v>
+        <v>0.7257515305016267</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9647065650011206</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7418882676138406</v>
+        <v>0.8559759169832669</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7151298798023941</v>
+        <v>0.7087088895253532</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4298393968243276</v>
+        <v>0.4725358914154161</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.261874709136908</v>
+        <v>0.268864088930448</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3253815175578963</v>
+        <v>0.3351047503046723</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2415875701323422</v>
+        <v>0.2450794435394592</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4063131292861979</v>
+        <v>0.4079298065212493</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4291720174980433</v>
+        <v>0.4202640733463793</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3597236549167883</v>
+        <v>0.3922972523608713</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.306523051825594</v>
+        <v>0.2995151131146114</v>
       </c>
     </row>
     <row r="10">
@@ -975,35 +975,35 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2510443100358901</v>
+        <v>0.2561768372801506</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1140061513047541</v>
+        <v>0.1180780859020656</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2038816799184847</v>
+        <v>0.2066091163251131</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.0505138753014865</v>
+        <v>0.05060519403318976</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06145258261656308</v>
+        <v>0.05933348327155936</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.148853041869643</v>
+        <v>0.1451984040693577</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09015617314429845</v>
+        <v>0.09553853651440443</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1348784636407879</v>
+        <v>0.1351238683974459</v>
       </c>
     </row>
     <row r="12">
@@ -1017,35 +1017,35 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9040970260795905</v>
+        <v>0.9159848927671332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8009832491315545</v>
+        <v>0.7406993653681492</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5377361867209315</v>
+        <v>0.5354292993491236</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.371470250205498</v>
+        <v>0.3781298857088637</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6509370666890729</v>
+        <v>0.6136688191056598</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2319222233606101</v>
+        <v>0.2245063770811854</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.411172607514051</v>
+        <v>0.3863526646641548</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5256725014924174</v>
+        <v>0.5537188210596938</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5947157579015874</v>
+        <v>0.5675878957161915</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3013515197547897</v>
+        <v>0.3044362865835368</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.7044607278477453</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4374090929333735</v>
+        <v>0.4374090929333734</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.08234528350900275</v>
@@ -1081,7 +1081,7 @@
         <v>0.0904452105135912</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06386910646380912</v>
+        <v>0.06386910646380914</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1350679139872544</v>
@@ -1107,37 +1107,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1296378393137795</v>
+        <v>0.125312971497139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4138433508344904</v>
+        <v>0.3417747913232532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.188084145868351</v>
+        <v>0.1921195097602485</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05087180174493548</v>
+        <v>0.05267956976969937</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02066129410065438</v>
+        <v>0.02050568774962587</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1371655851987189</v>
+        <v>0.1355014934957711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1396493768577596</v>
+        <v>0.1428193643505307</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09196630164327273</v>
+        <v>0.09140031115593034</v>
       </c>
     </row>
     <row r="15">
@@ -1151,37 +1151,37 @@
         <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8690648527082696</v>
+        <v>0.7762033205192787</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.917943707307328</v>
+        <v>0.914495236139897</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7133847000774215</v>
+        <v>0.712416514102716</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3506077174963797</v>
+        <v>0.3850532128006699</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4280548524178838</v>
+        <v>0.3961420194991679</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.296683994649839</v>
+        <v>0.266737043059839</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1769326440099847</v>
+        <v>0.1514768576001523</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4217392940087084</v>
+        <v>0.4146394966233684</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.458703206020926</v>
+        <v>0.4556870529930537</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4442007073358341</v>
+        <v>0.4438391503241612</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3092149141266408</v>
+        <v>0.2939608115596312</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2556973965279112</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06204543982321231</v>
+        <v>0.06204543982321233</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2661415529914482</v>
@@ -1256,22 +1256,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07481666690264453</v>
+        <v>0.07479775589166567</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01886734592067501</v>
+        <v>0.01923191522525295</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06485358075918302</v>
+        <v>0.06544605551241767</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07082286342053053</v>
+        <v>0.07255673399885357</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03328701628563543</v>
+        <v>0.02983469868317176</v>
       </c>
     </row>
     <row r="18">
@@ -1285,35 +1285,35 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6654113879990199</v>
+        <v>0.6924545014117433</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.3656310293978994</v>
+        <v>0.3988779024907968</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4449302126056023</v>
+        <v>0.4447224289585276</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2539300329537766</v>
+        <v>0.2605723520703693</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5888760469746586</v>
+        <v>0.6148140494013766</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1641216263361082</v>
+        <v>0.1599037851143996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5529063435462968</v>
+        <v>0.5833951583070621</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2380243433455483</v>
+        <v>0.2416374364281739</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5652777948269572</v>
+        <v>0.5989812165610006</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1805711268401928</v>
+        <v>0.1973488975775188</v>
       </c>
     </row>
     <row r="19">
@@ -1373,13 +1373,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.09890609999685235</v>
+        <v>0.09847437004622217</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1504933428493433</v>
+        <v>0.1479646886406137</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1197210370898465</v>
+        <v>0.1341344188294505</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1388,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05475786131621554</v>
+        <v>0.06373550467404916</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1205470818887519</v>
+        <v>0.1251969140092607</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06845442512469035</v>
+        <v>0.06869412353457965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1460007183438391</v>
+        <v>0.139768543392662</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1483040864978453</v>
+        <v>0.1515062877854288</v>
       </c>
     </row>
     <row r="21">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.6984506929100149</v>
+        <v>0.6018492384870419</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6968106946416081</v>
+        <v>0.6316578621593583</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3961427925224027</v>
+        <v>0.4156203900578858</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4070480516857091</v>
+        <v>0.4100930364326761</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.316471594998265</v>
+        <v>0.3175180453951089</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5148341411075823</v>
+        <v>0.5102002370853246</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3011136964556416</v>
+        <v>0.302387765107259</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3451100703298656</v>
+        <v>0.3501970361877867</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3436787260957362</v>
+        <v>0.3461388100455359</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.497725786194872</v>
+        <v>0.4917054501540793</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2957874747522757</v>
+        <v>0.2918932947304445</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.1684841170222227</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.2452182828227244</v>
+        <v>0.2452182828227243</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.283685695534171</v>
@@ -1507,35 +1507,35 @@
         <v>0.1554686724095169</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1990461382702817</v>
+        <v>0.2012254333733153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2233411475768882</v>
+        <v>0.2149781085611641</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1153874122234138</v>
+        <v>0.1096109837131112</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
-        <v>0.06149457983479885</v>
+        <v>0.06008763334764336</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07178490560303848</v>
+        <v>0.07362787917660532</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.158572044084441</v>
+        <v>0.1555410552387839</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08457457444569212</v>
+        <v>0.08663901206638498</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1373667719010556</v>
+        <v>0.143887120344251</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.142033460339923</v>
+        <v>0.1552569984577165</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1727301057308877</v>
+        <v>0.1737780283232014</v>
       </c>
     </row>
     <row r="24">
@@ -1546,38 +1546,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8416025120594952</v>
+        <v>0.8427393222829235</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7498632576226812</v>
+        <v>0.7992856697738169</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6641922903030145</v>
+        <v>0.6647150146183142</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5729019709633097</v>
+        <v>0.5591411600769252</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.3384497124164935</v>
+        <v>0.3626041992355568</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3150570534211459</v>
+        <v>0.3189287305566124</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3520522046338161</v>
+        <v>0.3567046819123828</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6060725740367232</v>
+        <v>0.6771568783083404</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4253729666755243</v>
+        <v>0.4107964641467453</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3685096649198815</v>
+        <v>0.3706762920829433</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3495902725094546</v>
+        <v>0.354569567753786</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1497151465865055</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2295897104305464</v>
+        <v>0.2295897104305465</v>
       </c>
     </row>
     <row r="26">
@@ -1636,38 +1636,38 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2348721842373395</v>
+        <v>0.2286054739709375</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1848369918041347</v>
+        <v>0.1632077599036904</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3154292812579927</v>
+        <v>0.3381000447180367</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.08498451364223934</v>
+        <v>0.0838958615382852</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07147038423253169</v>
+        <v>0.0723757228071905</v>
       </c>
       <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="n">
-        <v>0.08302840577029276</v>
+        <v>0.08001360198783776</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1724660942113558</v>
+        <v>0.1728070861585104</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0879950333126166</v>
+        <v>0.08434965036629091</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0476781965723193</v>
+        <v>0.03188848953773501</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1652041913760113</v>
+        <v>0.1642907934123777</v>
       </c>
     </row>
     <row r="27">
@@ -1678,38 +1678,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6406288425711247</v>
+        <v>0.6687181442002298</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6259904847371692</v>
+        <v>0.7031401209126802</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8320348035639692</v>
+        <v>0.8253234791712766</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6489377714567631</v>
+        <v>0.6713657222197201</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3842307234875327</v>
+        <v>0.3978993240045099</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3743346596239123</v>
+        <v>0.3712509165101748</v>
       </c>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.2112504431578328</v>
+        <v>0.2155045265292451</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4334385634576677</v>
+        <v>0.436115892369014</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3868025798265463</v>
+        <v>0.3526124061726763</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3389028011099285</v>
+        <v>0.321688881940786</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3062120777042261</v>
+        <v>0.3017064270915358</v>
       </c>
     </row>
     <row r="28">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2882034640851892</v>
+        <v>0.2940285033285617</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.09974279094295731</v>
+        <v>0.09993859203634255</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.0901263783773526</v>
+        <v>0.08909686377976114</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1212592061843816</v>
+        <v>0.1218513620123078</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1741814130662922</v>
+        <v>0.166558726707617</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1837767819076121</v>
+        <v>0.1847759374319234</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1782016271123139</v>
+        <v>0.179118258023532</v>
       </c>
     </row>
     <row r="30">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4421319111288348</v>
+        <v>0.441398832475243</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2026236624223709</v>
+        <v>0.2020823207788786</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2104396402769177</v>
+        <v>0.2090752228145472</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1866698345938961</v>
+        <v>0.1867254620843308</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2804878023118416</v>
+        <v>0.276216665746826</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3019095183625791</v>
+        <v>0.2997291478307761</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.242791409894557</v>
+        <v>0.2454800468021189</v>
       </c>
     </row>
     <row r="31">
@@ -2126,14 +2126,14 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2460</v>
+        <v>2061</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4145</v>
+        <v>3710</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7">
@@ -2163,33 +2163,33 @@
         <v>3520</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4223</v>
+        <v>4019</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8281</v>
+        <v>7601</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4544</v>
+        <v>4553</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7371</v>
+        <v>8167</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9010</v>
+        <v>9646</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>4705</v>
+        <v>4945</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9382</v>
+        <v>9105</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14441</v>
+        <v>13915</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>5529</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="8">
@@ -2295,37 +2295,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4050</v>
+        <v>4652</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2761</v>
+        <v>2736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3449</v>
+        <v>3077</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1176</v>
+        <v>1045</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>6756</v>
+        <v>6704</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>949</v>
+        <v>984</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>7351</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="11">
@@ -2336,40 +2336,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4971</v>
+        <v>4993</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11297</v>
+        <v>11710</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4069</v>
+        <v>4695</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9352</v>
+        <v>9268</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6322</v>
+        <v>6950</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>9666</v>
+        <v>9924</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5798</v>
+        <v>5971</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10802</v>
+        <v>10958</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8771</v>
+        <v>8806</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>20866</v>
+        <v>20433</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>8383</v>
+        <v>9142</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>17715</v>
+        <v>17310</v>
       </c>
     </row>
     <row r="12">
@@ -2475,35 +2475,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2326</v>
+        <v>2374</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3644</v>
+        <v>3693</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2061</v>
+        <v>1990</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4246</v>
+        <v>4141</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1513</v>
+        <v>1604</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6935</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="15">
@@ -2517,35 +2517,35 @@
         <v>2934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8378</v>
+        <v>8488</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4815</v>
+        <v>4452</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9611</v>
+        <v>9570</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>7153</v>
+        <v>7282</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7013</v>
+        <v>6612</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7780</v>
+        <v>7531</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6244</v>
+        <v>5868</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>14994</v>
+        <v>15794</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9982</v>
+        <v>9527</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15495</v>
+        <v>15654</v>
       </c>
     </row>
     <row r="16">
@@ -2651,37 +2651,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1126</v>
+        <v>1088</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4141</v>
+        <v>3420</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1790</v>
+        <v>1829</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1142</v>
+        <v>1183</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4271</v>
+        <v>4220</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4878</v>
+        <v>4989</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2790</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="19">
@@ -2695,37 +2695,37 @@
         <v>2580</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7548</v>
+        <v>6741</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9185</v>
+        <v>9150</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6791</v>
+        <v>6781</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3791</v>
+        <v>4164</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>9612</v>
+        <v>8895</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7395</v>
+        <v>6648</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3684</v>
+        <v>3154</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>5649</v>
+        <v>5554</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>14284</v>
+        <v>14190</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15516</v>
+        <v>15503</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>9382</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="20">
@@ -2847,19 +2847,19 @@
         <v>906</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>829</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23">
@@ -2873,35 +2873,35 @@
         <v>4281</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4462</v>
+        <v>4644</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>2807</v>
+        <v>3062</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5002</v>
+        <v>5133</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7134</v>
+        <v>7448</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2826</v>
+        <v>2753</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7308</v>
+        <v>7711</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>6285</v>
+        <v>6380</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>7299</v>
+        <v>7735</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4495</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="24">
@@ -3005,13 +3005,13 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1627</v>
+        <v>1600</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1982</v>
+        <v>2221</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -3020,22 +3020,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1210</v>
+        <v>1409</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3924</v>
+        <v>4075</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2111</v>
+        <v>2119</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4806</v>
+        <v>4601</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7283</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="27">
@@ -3047,37 +3047,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>7438</v>
+        <v>6410</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7534</v>
+        <v>6829</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6559</v>
+        <v>6881</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4294</v>
+        <v>4326</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>6391</v>
+        <v>6412</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11380</v>
+        <v>11278</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9801</v>
+        <v>9843</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>4913</v>
+        <v>4985</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>10601</v>
+        <v>10677</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>16384</v>
+        <v>16185</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>14525</v>
+        <v>14334</v>
       </c>
     </row>
     <row r="28">
@@ -3183,35 +3183,35 @@
         <v>806</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3095</v>
+        <v>3129</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4455</v>
+        <v>4288</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1720</v>
+        <v>1634</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
-        <v>2179</v>
+        <v>2129</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3080</v>
+        <v>3159</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8187</v>
+        <v>8031</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>7003</v>
+        <v>7335</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>8927</v>
+        <v>9758</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>11494</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="31">
@@ -3222,38 +3222,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4365</v>
+        <v>4371</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11661</v>
+        <v>12430</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13249</v>
+        <v>13260</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8541</v>
+        <v>8336</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>11991</v>
+        <v>12847</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>13517</v>
+        <v>13683</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>18177</v>
+        <v>18417</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5540</v>
+        <v>6189</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>21686</v>
+        <v>20942</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>23161</v>
+        <v>23297</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>23262</v>
+        <v>23593</v>
       </c>
     </row>
     <row r="32">
@@ -3356,38 +3356,38 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>4512</v>
+        <v>4392</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1683</v>
+        <v>1486</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>7475</v>
+        <v>8013</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2544</v>
+        <v>2511</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2149</v>
+        <v>2176</v>
       </c>
       <c r="I34" s="6" t="inlineStr"/>
       <c r="J34" s="6" t="n">
-        <v>5521</v>
+        <v>5321</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>8476</v>
+        <v>8492</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3427</v>
+        <v>3285</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1519</v>
+        <v>1016</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>14901</v>
+        <v>14818</v>
       </c>
     </row>
     <row r="35">
@@ -3398,38 +3398,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>12308</v>
+        <v>12847</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>5563</v>
+        <v>6248</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7575</v>
+        <v>7514</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>15379</v>
+        <v>15911</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11501</v>
+        <v>11910</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>11254</v>
+        <v>11161</v>
       </c>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>14047</v>
+        <v>14330</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>21301</v>
+        <v>21432</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>15066</v>
+        <v>13734</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>10799</v>
+        <v>10251</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>27619</v>
+        <v>27212</v>
       </c>
     </row>
     <row r="36">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>31292</v>
+        <v>31924</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>20472</v>
+        <v>20512</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>15483</v>
+        <v>15306</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>33398</v>
+        <v>33561</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>49424</v>
+        <v>47261</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>44820</v>
+        <v>45064</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>68430</v>
+        <v>68782</v>
       </c>
     </row>
     <row r="39">
@@ -3576,40 +3576,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>48005</v>
+        <v>47925</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>41587</v>
+        <v>41476</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>36151</v>
+        <v>35917</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>51414</v>
+        <v>51430</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>79588</v>
+        <v>78376</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>73631</v>
+        <v>73099</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>93233</v>
+        <v>94266</v>
       </c>
     </row>
     <row r="40">
